--- a/models/evaluation/output/unixcoder_finetuned-test-humaneval.xlsx
+++ b/models/evaluation/output/unixcoder_finetuned-test-humaneval.xlsx
@@ -542,7 +542,8 @@
           <t>functions
 complete
 parameter(s)
-argument(s)body</t>
+argument(s)
+body</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -551,7 +552,8 @@
 ++
 :
 !!
-list comprehension</t>
+list comprehension
+range</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -585,7 +587,8 @@
         <is>
           <t>case expressions
 complete
-parameter(s), argument(s)</t>
+parameter(s)
+argument(s)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/models/evaluation/output/unixcoder_finetuned-test-humaneval.xlsx
+++ b/models/evaluation/output/unixcoder_finetuned-test-humaneval.xlsx
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="9">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="11">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="16">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="19">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="20">
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="21">
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="22">
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="E22" s="6" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="24">
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="25">
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="26">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="28">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="E28" s="6" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="29">
@@ -1696,13 +1696,13 @@
           <t xml:space="preserve"> []</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D30" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E30" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="32">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="33">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="34">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="E35" s="6" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="E36" s="6" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="37">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="38">
@@ -2089,13 +2089,13 @@
           <t xml:space="preserve"> y = -1</t>
         </is>
       </c>
-      <c r="D38" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D38" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="40">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="E41" s="6" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="42">
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="E42" s="6" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2279,7 +2279,7 @@
         </is>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="44">
@@ -2319,7 +2319,7 @@
         </is>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="45">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="46">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="E46" s="6" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="47">
@@ -2399,13 +2399,13 @@
           <t xml:space="preserve"> x &gt; 0]</t>
         </is>
       </c>
-      <c r="D47" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D47" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E47" s="6" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="E48" s="6" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="49">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="52">
@@ -2672,13 +2672,13 @@
           <t xml:space="preserve"> sum</t>
         </is>
       </c>
-      <c r="D53" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D53" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E53" s="6" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="E54" s="6" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="55">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="56">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="57">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="E58" s="6" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="59">
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="E59" s="6" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="60">
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="E60" s="6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="E61" s="6" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="62">
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="E63" s="6" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="64">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="E64" s="6" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="65">
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="E66" s="6" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="67">
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="E67" s="6" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="68">
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="E69" s="6" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="70">
@@ -3414,7 +3414,7 @@
         </is>
       </c>
       <c r="E70" s="6" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="71">
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="E71" s="6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="72">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="E72" s="6" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="73">
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="E73" s="6" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="74">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="E74" s="6" t="n">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="75">
@@ -3600,7 +3600,7 @@
         </is>
       </c>
       <c r="E75" s="6" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="76">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="E76" s="6" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="77">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="E77" s="6" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="78">
@@ -3873,7 +3873,7 @@
         </is>
       </c>
       <c r="E80" s="6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="E81" s="6" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="82">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="E82" s="6" t="n">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="83">
@@ -3974,13 +3974,13 @@
           <t xml:space="preserve"> c</t>
         </is>
       </c>
-      <c r="D83" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D83" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E83" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="E84" s="6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="E85" s="6" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="86">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E86" s="6" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="87">
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="E87" s="6" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="88">
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="E88" s="6" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="89">
@@ -4243,7 +4243,7 @@
         </is>
       </c>
       <c r="E90" s="6" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="91">
@@ -4291,7 +4291,7 @@
         </is>
       </c>
       <c r="E91" s="6" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="92">
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="E92" s="6" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="93">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="E93" s="6" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="94">
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="E94" s="6" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95">
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="E95" s="6" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="96">
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="E96" s="6" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="97">
@@ -4508,7 +4508,7 @@
         </is>
       </c>
       <c r="E97" s="6" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="98">
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="E99" s="6" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="100">
@@ -4636,13 +4636,13 @@
           <t xml:space="preserve"> sort arr</t>
         </is>
       </c>
-      <c r="D100" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D100" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E100" s="6" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="E101" s="6" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="102">
@@ -4740,7 +4740,7 @@
         </is>
       </c>
       <c r="E102" s="6" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="103">
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="E103" s="6" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="104">
@@ -4808,7 +4808,7 @@
         </is>
       </c>
       <c r="E104" s="6" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="105">
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="E105" s="6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106">
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="E106" s="6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107">
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="E107" s="6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="E108" s="6" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="109">
@@ -4999,7 +4999,7 @@
         </is>
       </c>
       <c r="E109" s="6" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="110">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E110" s="6" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="111">
@@ -5090,13 +5090,13 @@
           <t xml:space="preserve"> b * d</t>
         </is>
       </c>
-      <c r="D111" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D111" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E111" s="6" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="E112" s="6" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="113">
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="E113" s="6" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="114">
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="E114" s="6" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="115">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="E115" s="6" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="116">
@@ -5309,7 +5309,7 @@
         </is>
       </c>
       <c r="E116" s="6" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="117">
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="E117" s="6" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="118">
@@ -5381,7 +5381,7 @@
         </is>
       </c>
       <c r="E118" s="6" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="119">
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="E119" s="6" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="120">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="E120" s="6" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="121">
@@ -5491,13 +5491,13 @@
           <t xml:space="preserve"> sort (nub s1)</t>
         </is>
       </c>
-      <c r="D121" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D121" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E121" s="6" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -5528,13 +5528,13 @@
           <t xml:space="preserve"> Nothing</t>
         </is>
       </c>
-      <c r="D122" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D122" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E122" s="6" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="E123" s="6" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="124">
@@ -5602,13 +5602,13 @@
           <t xml:space="preserve"> 2</t>
         </is>
       </c>
-      <c r="D124" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D124" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E124" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="E125" s="6" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="126">
@@ -5679,13 +5679,13 @@
           <t xml:space="preserve"> xs</t>
         </is>
       </c>
-      <c r="D126" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D126" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E126" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -5719,13 +5719,13 @@
           <t xml:space="preserve"> []</t>
         </is>
       </c>
-      <c r="D127" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D127" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E127" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -5763,7 +5763,7 @@
         </is>
       </c>
       <c r="E128" s="6" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="129">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="E129" s="6" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="130">
@@ -5836,13 +5836,13 @@
           <t xml:space="preserve"> []</t>
         </is>
       </c>
-      <c r="D130" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D130" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E130" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="E131" s="6" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="132">
@@ -5949,13 +5949,13 @@
           <t xml:space="preserve"> "Nine"</t>
         </is>
       </c>
-      <c r="D132" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D132" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E132" s="6" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -5997,13 +5997,13 @@
           <t xml:space="preserve"> x &lt;= 9</t>
         </is>
       </c>
-      <c r="D133" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D133" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E133" s="6" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -6049,13 +6049,13 @@
           <t xml:space="preserve"> "Three"</t>
         </is>
       </c>
-      <c r="D134" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D134" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E134" s="6" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -6101,7 +6101,7 @@
         </is>
       </c>
       <c r="E135" s="6" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="136">
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="E137" s="6" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="138">
@@ -6225,7 +6225,7 @@
         </is>
       </c>
       <c r="E138" s="6" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="139">
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="E139" s="6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -6281,13 +6281,13 @@
           <t xml:space="preserve"> a b</t>
         </is>
       </c>
-      <c r="D140" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D140" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E140" s="6" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="E141" s="6" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="142">
@@ -6354,7 +6354,7 @@
         </is>
       </c>
       <c r="E142" s="6" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="143">
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="E143" s="6" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="144">
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="E144" s="6" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="145">
@@ -6465,7 +6465,7 @@
         </is>
       </c>
       <c r="E145" s="6" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="146">
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="E146" s="6" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="147">
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="E147" s="6" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="148">
@@ -6651,7 +6651,7 @@
         </is>
       </c>
       <c r="E148" s="6" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="149">
@@ -6709,7 +6709,7 @@
         </is>
       </c>
       <c r="E149" s="6" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -6766,7 +6766,7 @@
         </is>
       </c>
       <c r="E150" s="6" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="151">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="E151" s="6" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="152">
@@ -6850,13 +6850,13 @@
           <t xml:space="preserve"> [1]</t>
         </is>
       </c>
-      <c r="D152" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D152" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E152" s="6" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -6897,13 +6897,13 @@
           <t xml:space="preserve"> 1)</t>
         </is>
       </c>
-      <c r="D153" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D153" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E153" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -6949,7 +6949,7 @@
         </is>
       </c>
       <c r="E154" s="6" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="155">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E155" s="6" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="156">
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="E156" s="6" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="157">
@@ -7073,7 +7073,7 @@
         </is>
       </c>
       <c r="E157" s="6" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="158">
@@ -7106,13 +7106,13 @@
           <t xml:space="preserve"> n - 1]</t>
         </is>
       </c>
-      <c r="D158" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D158" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E158" s="6" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -7140,7 +7140,7 @@
         </is>
       </c>
       <c r="E159" s="6" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="160">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E161" s="6" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="162">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="E162" s="6" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="163">
@@ -7286,7 +7286,7 @@
         </is>
       </c>
       <c r="E163" s="6" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="164">
@@ -7331,7 +7331,7 @@
         </is>
       </c>
       <c r="E164" s="6" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="165">
@@ -7370,7 +7370,7 @@
         </is>
       </c>
       <c r="E165" s="6" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="166">
@@ -7416,7 +7416,7 @@
         </is>
       </c>
       <c r="E166" s="6" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="167">
@@ -7453,7 +7453,7 @@
         </is>
       </c>
       <c r="E167" s="6" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="168">
@@ -7490,7 +7490,7 @@
         </is>
       </c>
       <c r="E168" s="6" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="169">
@@ -7521,13 +7521,13 @@
           <t xml:space="preserve"> words s]</t>
         </is>
       </c>
-      <c r="D169" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D169" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E169" s="6" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -7564,7 +7564,7 @@
         </is>
       </c>
       <c r="E170" s="6" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="171">
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="E171" s="6" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -7639,7 +7639,7 @@
         </is>
       </c>
       <c r="E172" s="6" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="173">
@@ -7676,7 +7676,7 @@
         </is>
       </c>
       <c r="E173" s="6" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="174">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="E174" s="6" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="175">
@@ -7751,7 +7751,7 @@
         </is>
       </c>
       <c r="E175" s="6" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="176">
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="E176" s="6" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="177">
@@ -7866,13 +7866,13 @@
           <t xml:space="preserve"> 26)</t>
         </is>
       </c>
-      <c r="D178" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D178" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E178" s="6" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -7913,7 +7913,7 @@
         </is>
       </c>
       <c r="E179" s="6" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="180">
@@ -7955,7 +7955,7 @@
         </is>
       </c>
       <c r="E180" s="6" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="181">
@@ -7997,7 +7997,7 @@
         </is>
       </c>
       <c r="E181" s="6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -8035,7 +8035,7 @@
         </is>
       </c>
       <c r="E182" s="6" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="183">
@@ -8079,7 +8079,7 @@
         </is>
       </c>
       <c r="E183" s="6" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="184">
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="E184" s="6" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="185">
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="E185" s="6" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="E186" s="6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="187">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E187" s="6" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="188">
@@ -8287,7 +8287,7 @@
         </is>
       </c>
       <c r="E188" s="6" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="189">
@@ -8308,13 +8308,13 @@
           <t xml:space="preserve"> reverse string</t>
         </is>
       </c>
-      <c r="D189" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D189" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E189" s="6" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -8341,7 +8341,7 @@
         </is>
       </c>
       <c r="E190" s="6" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="E191" s="6" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="192">
@@ -8420,7 +8420,7 @@
         </is>
       </c>
       <c r="E192" s="6" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="193">
@@ -8451,13 +8451,13 @@
           <t xml:space="preserve"> Nothing</t>
         </is>
       </c>
-      <c r="D193" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D193" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E193" s="6" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -8495,7 +8495,7 @@
         </is>
       </c>
       <c r="E194" s="6" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="195">
@@ -8533,7 +8533,7 @@
         </is>
       </c>
       <c r="E195" s="6" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="196">
@@ -8604,7 +8604,7 @@
         </is>
       </c>
       <c r="E197" s="6" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="198">
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="E198" s="6" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="199">
@@ -8670,7 +8670,7 @@
         </is>
       </c>
       <c r="E199" s="6" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="200">
@@ -8736,7 +8736,7 @@
         </is>
       </c>
       <c r="E201" s="6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="202">
@@ -8791,7 +8791,7 @@
         </is>
       </c>
       <c r="E202" s="6" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="203">
@@ -8837,7 +8837,7 @@
         </is>
       </c>
       <c r="E203" s="6" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="204">
@@ -8890,7 +8890,7 @@
         </is>
       </c>
       <c r="E204" s="6" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="205">
@@ -8935,7 +8935,7 @@
         </is>
       </c>
       <c r="E205" s="6" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="206">
@@ -8981,7 +8981,7 @@
         </is>
       </c>
       <c r="E206" s="6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="207">
@@ -9016,7 +9016,7 @@
         </is>
       </c>
       <c r="E207" s="6" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="208">
@@ -9051,7 +9051,7 @@
         </is>
       </c>
       <c r="E208" s="6" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -9086,7 +9086,7 @@
         </is>
       </c>
       <c r="E209" s="6" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="210">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="E210" s="6" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="211">
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="E211" s="6" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="212">
@@ -9222,7 +9222,7 @@
         </is>
       </c>
       <c r="E212" s="6" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="213">
@@ -9305,13 +9305,13 @@
           <t xml:space="preserve"> 1</t>
         </is>
       </c>
-      <c r="D214" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D214" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E214" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -9351,7 +9351,7 @@
         </is>
       </c>
       <c r="E215" s="6" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="216">
@@ -9391,7 +9391,7 @@
         </is>
       </c>
       <c r="E216" s="6" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="217">
@@ -9431,7 +9431,7 @@
         </is>
       </c>
       <c r="E217" s="6" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="218">
@@ -9537,7 +9537,7 @@
         </is>
       </c>
       <c r="E220" s="6" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="221">
@@ -9568,7 +9568,7 @@
         </is>
       </c>
       <c r="E221" s="6" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="222">
@@ -9626,7 +9626,7 @@
         </is>
       </c>
       <c r="E223" s="6" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="224">
@@ -9694,7 +9694,7 @@
         </is>
       </c>
       <c r="E225" s="6" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="226">
@@ -9728,7 +9728,7 @@
         </is>
       </c>
       <c r="E226" s="6" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="227">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="E227" s="6" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="228">
@@ -9802,13 +9802,13 @@
           <t xml:space="preserve"> []</t>
         </is>
       </c>
-      <c r="D228" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D228" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E228" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="E229" s="6" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="230">
@@ -9889,7 +9889,7 @@
         </is>
       </c>
       <c r="E230" s="6" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="231">
@@ -9928,7 +9928,7 @@
         </is>
       </c>
       <c r="E231" s="6" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="232">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="E232" s="6" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="233">
@@ -10016,7 +10016,7 @@
         </is>
       </c>
       <c r="E233" s="6" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="234">
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="E234" s="6" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="235">
@@ -10098,7 +10098,7 @@
         </is>
       </c>
       <c r="E235" s="6" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="236">
@@ -10136,7 +10136,7 @@
         </is>
       </c>
       <c r="E236" s="6" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="237">
@@ -10185,13 +10185,13 @@
           <t xml:space="preserve"> zip [0 ..] planet_names, x == planet2]</t>
         </is>
       </c>
-      <c r="D237" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D237" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E237" s="6" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -10237,7 +10237,7 @@
         </is>
       </c>
       <c r="E238" s="6" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -10280,7 +10280,7 @@
         </is>
       </c>
       <c r="E239" s="6" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="240">
@@ -10333,7 +10333,7 @@
         </is>
       </c>
       <c r="E240" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="241">
@@ -10384,7 +10384,7 @@
         </is>
       </c>
       <c r="E241" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="242">
@@ -10411,7 +10411,7 @@
         </is>
       </c>
       <c r="E242" s="6" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="243">
@@ -10469,7 +10469,7 @@
         </is>
       </c>
       <c r="E244" s="6" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="245">
@@ -10505,7 +10505,7 @@
         </is>
       </c>
       <c r="E245" s="6" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="246">
@@ -10600,7 +10600,7 @@
         </is>
       </c>
       <c r="E247" s="6" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="248">
@@ -10661,7 +10661,7 @@
         </is>
       </c>
       <c r="E248" s="6" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -10719,7 +10719,7 @@
         </is>
       </c>
       <c r="E249" s="6" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="250">
@@ -10770,13 +10770,13 @@
           <t xml:space="preserve"> grid</t>
         </is>
       </c>
-      <c r="D250" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D250" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E250" s="6" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -10833,7 +10833,7 @@
         </is>
       </c>
       <c r="E251" s="6" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="252">
@@ -10890,7 +10890,7 @@
         </is>
       </c>
       <c r="E252" s="6" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="253">
@@ -10947,7 +10947,7 @@
         </is>
       </c>
       <c r="E253" s="6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="254">
@@ -10981,7 +10981,7 @@
         </is>
       </c>
       <c r="E254" s="6" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="255">
@@ -11015,7 +11015,7 @@
         </is>
       </c>
       <c r="E255" s="6" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="256">
@@ -11049,7 +11049,7 @@
         </is>
       </c>
       <c r="E256" s="6" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="257">
@@ -11119,7 +11119,7 @@
         </is>
       </c>
       <c r="E258" s="6" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="259">
@@ -11155,7 +11155,7 @@
         </is>
       </c>
       <c r="E259" s="6" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="260">
@@ -11191,7 +11191,7 @@
         </is>
       </c>
       <c r="E260" s="6" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="261">
@@ -11227,7 +11227,7 @@
         </is>
       </c>
       <c r="E261" s="6" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="262">
@@ -11264,7 +11264,7 @@
         </is>
       </c>
       <c r="E262" s="6" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="263">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E266" s="6" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="267">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E267" s="6" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -11519,7 +11519,7 @@
         </is>
       </c>
       <c r="E268" s="6" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="269">
@@ -11545,7 +11545,7 @@
         </is>
       </c>
       <c r="E269" s="6" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="270">
@@ -11575,7 +11575,7 @@
         </is>
       </c>
       <c r="E270" s="6" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="271">
@@ -11644,7 +11644,7 @@
         </is>
       </c>
       <c r="E272" s="6" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="273">
@@ -11686,7 +11686,7 @@
         </is>
       </c>
       <c r="E273" s="6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -11727,7 +11727,7 @@
         </is>
       </c>
       <c r="E274" s="6" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="275">
@@ -11768,7 +11768,7 @@
         </is>
       </c>
       <c r="E275" s="6" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="276">
@@ -11810,7 +11810,7 @@
         </is>
       </c>
       <c r="E276" s="6" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="277">
@@ -11845,7 +11845,7 @@
         </is>
       </c>
       <c r="E277" s="6" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="278">
@@ -11884,7 +11884,7 @@
         </is>
       </c>
       <c r="E278" s="6" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="279">
@@ -11923,7 +11923,7 @@
         </is>
       </c>
       <c r="E279" s="6" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -11955,13 +11955,13 @@
           <t xml:space="preserve"> ""</t>
         </is>
       </c>
-      <c r="D280" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D280" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E280" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="E281" s="6" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="282">
@@ -12035,7 +12035,7 @@
         </is>
       </c>
       <c r="E282" s="6" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="283">
@@ -12109,7 +12109,7 @@
         </is>
       </c>
       <c r="E284" s="6" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="285">
@@ -12183,7 +12183,7 @@
         </is>
       </c>
       <c r="E286" s="6" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="287">
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="E287" s="6" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="288">
@@ -12251,13 +12251,13 @@
           <t xml:space="preserve"> 0</t>
         </is>
       </c>
-      <c r="D288" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D288" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E288" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -12335,7 +12335,7 @@
         </is>
       </c>
       <c r="E290" s="6" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="291">
@@ -12378,7 +12378,7 @@
         </is>
       </c>
       <c r="E291" s="6" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="292">
@@ -12399,13 +12399,13 @@
           <t xml:space="preserve"> False</t>
         </is>
       </c>
-      <c r="D292" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D292" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E292" s="6" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -12433,7 +12433,7 @@
         </is>
       </c>
       <c r="E293" s="6" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="294">
@@ -12468,7 +12468,7 @@
         </is>
       </c>
       <c r="E294" s="6" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="295">
@@ -12498,13 +12498,13 @@
           <t xml:space="preserve"> (b `mod` 10)</t>
         </is>
       </c>
-      <c r="D295" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D295" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E295" s="6" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -12576,7 +12576,7 @@
         </is>
       </c>
       <c r="E297" s="6" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="298">
@@ -12622,7 +12622,7 @@
         </is>
       </c>
       <c r="E298" s="6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="299">
@@ -12668,7 +12668,7 @@
         </is>
       </c>
       <c r="E299" s="6" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -12755,7 +12755,7 @@
         </is>
       </c>
       <c r="E301" s="6" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="302">
@@ -12791,13 +12791,13 @@
           <t xml:space="preserve"> a</t>
         </is>
       </c>
-      <c r="D302" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D302" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E302" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="E303" s="6" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="304">
@@ -12913,7 +12913,7 @@
         </is>
       </c>
       <c r="E305" s="6" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="306">
@@ -12954,7 +12954,7 @@
         </is>
       </c>
       <c r="E306" s="6" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="307">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E307" s="6" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="308">
@@ -13035,7 +13035,7 @@
         </is>
       </c>
       <c r="E308" s="6" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="309">
@@ -13074,7 +13074,7 @@
         </is>
       </c>
       <c r="E309" s="6" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="310">
@@ -13110,7 +13110,7 @@
         </is>
       </c>
       <c r="E310" s="6" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="311">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E311" s="6" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="312">
@@ -13175,13 +13175,13 @@
           <t xml:space="preserve"> sort xs</t>
         </is>
       </c>
-      <c r="D312" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D312" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E312" s="6" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -13213,7 +13213,7 @@
         </is>
       </c>
       <c r="E313" s="6" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="314">
@@ -13249,7 +13249,7 @@
         </is>
       </c>
       <c r="E314" s="6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="315">
@@ -13281,7 +13281,7 @@
         </is>
       </c>
       <c r="E315" s="6" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -13319,7 +13319,7 @@
         </is>
       </c>
       <c r="E316" s="6" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="317">
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="E317" s="6" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="318">
@@ -13385,7 +13385,7 @@
         </is>
       </c>
       <c r="E318" s="6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="319">
@@ -13448,13 +13448,13 @@
           <t xml:space="preserve"> acc</t>
         </is>
       </c>
-      <c r="D320" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D320" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E320" s="6" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -13490,7 +13490,7 @@
         </is>
       </c>
       <c r="E321" s="6" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="322">
@@ -13516,7 +13516,7 @@
         </is>
       </c>
       <c r="E322" s="6" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="323">
@@ -13545,7 +13545,7 @@
         </is>
       </c>
       <c r="E323" s="6" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="324">
@@ -13567,13 +13567,13 @@
           <t xml:space="preserve"> acc</t>
         </is>
       </c>
-      <c r="D324" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D324" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E324" s="6" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -13675,7 +13675,7 @@
         </is>
       </c>
       <c r="E326" s="6" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="327">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E327" s="6" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="328">
@@ -13775,7 +13775,7 @@
         </is>
       </c>
       <c r="E328" s="6" t="n">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="329">
@@ -13874,7 +13874,7 @@
         </is>
       </c>
       <c r="E330" s="6" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="331">
@@ -13963,7 +13963,7 @@
         </is>
       </c>
       <c r="E332" s="6" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="333">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="E333" s="6" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="334">
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="E334" s="6" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="335">
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="E335" s="6" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="336">
@@ -14179,7 +14179,7 @@
         </is>
       </c>
       <c r="E337" s="6" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="338">
@@ -14225,7 +14225,7 @@
         </is>
       </c>
       <c r="E338" s="6" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="339">
@@ -14286,7 +14286,7 @@
         </is>
       </c>
       <c r="E339" s="6" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="340">
@@ -14345,7 +14345,7 @@
         </is>
       </c>
       <c r="E340" s="6" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="341">
@@ -14391,7 +14391,7 @@
         </is>
       </c>
       <c r="E341" s="6" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="342">
@@ -14432,7 +14432,7 @@
         </is>
       </c>
       <c r="E342" s="6" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="343">
@@ -14473,7 +14473,7 @@
         </is>
       </c>
       <c r="E343" s="6" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -14513,7 +14513,7 @@
         </is>
       </c>
       <c r="E344" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -14552,7 +14552,7 @@
         </is>
       </c>
       <c r="E345" s="6" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="346">
@@ -14592,7 +14592,7 @@
         </is>
       </c>
       <c r="E346" s="6" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="347">
@@ -14632,7 +14632,7 @@
         </is>
       </c>
       <c r="E347" s="6" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="348">
@@ -14669,7 +14669,7 @@
         </is>
       </c>
       <c r="E348" s="6" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="349">
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="E349" s="6" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="350">
@@ -14743,7 +14743,7 @@
         </is>
       </c>
       <c r="E350" s="6" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="351">
@@ -14783,7 +14783,7 @@
         </is>
       </c>
       <c r="E351" s="6" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="352">
@@ -14829,13 +14829,13 @@
           <t xml:space="preserve"> length arr - 1]</t>
         </is>
       </c>
-      <c r="D352" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D352" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E352" s="6" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="E353" s="6" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="354">
@@ -14935,13 +14935,13 @@
           <t xml:space="preserve"> take n xs</t>
         </is>
       </c>
-      <c r="D354" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D354" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E354" s="6" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="E355" s="6" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="E356" s="6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -15082,7 +15082,7 @@
         </is>
       </c>
       <c r="E357" s="6" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="358">
@@ -15106,13 +15106,13 @@
           <t xml:space="preserve"> zip a b]</t>
         </is>
       </c>
-      <c r="D358" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D358" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E358" s="6" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -15142,7 +15142,7 @@
         </is>
       </c>
       <c r="E359" s="6" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="360">
@@ -15172,7 +15172,7 @@
         </is>
       </c>
       <c r="E360" s="6" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="361">
@@ -15202,7 +15202,7 @@
         </is>
       </c>
       <c r="E361" s="6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="362">
@@ -15236,7 +15236,7 @@
         </is>
       </c>
       <c r="E362" s="6" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="363">
@@ -15270,7 +15270,7 @@
         </is>
       </c>
       <c r="E363" s="6" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="364">
@@ -15304,7 +15304,7 @@
         </is>
       </c>
       <c r="E364" s="6" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="365">
@@ -15338,7 +15338,7 @@
         </is>
       </c>
       <c r="E365" s="6" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="366">
@@ -15409,7 +15409,7 @@
         </is>
       </c>
       <c r="E367" s="6" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="368">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="E368" s="6" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="369">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E369" s="6" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="370">
@@ -15570,7 +15570,7 @@
         </is>
       </c>
       <c r="E370" s="6" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="371">
@@ -15626,7 +15626,7 @@
         </is>
       </c>
       <c r="E371" s="6" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="372">
@@ -15683,7 +15683,7 @@
         </is>
       </c>
       <c r="E372" s="6" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="373">
@@ -15722,7 +15722,7 @@
         </is>
       </c>
       <c r="E373" s="6" t="n">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="374">
@@ -15763,7 +15763,7 @@
         </is>
       </c>
       <c r="E374" s="6" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="375">
@@ -15803,7 +15803,7 @@
         </is>
       </c>
       <c r="E375" s="6" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="376">
@@ -15841,13 +15841,13 @@
           <t xml:space="preserve"> True</t>
         </is>
       </c>
-      <c r="D376" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D376" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E376" s="6" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -15886,13 +15886,13 @@
           <t xml:space="preserve"> False</t>
         </is>
       </c>
-      <c r="D377" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D377" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E377" s="6" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -15927,13 +15927,13 @@
           <t xml:space="preserve"> 3</t>
         </is>
       </c>
-      <c r="D378" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D378" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E378" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -15975,7 +15975,7 @@
         </is>
       </c>
       <c r="E379" s="6" t="n">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="380">
@@ -16019,7 +16019,7 @@
         </is>
       </c>
       <c r="E380" s="6" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="381">
@@ -16055,13 +16055,13 @@
           <t xml:space="preserve"> fib (n - 2)</t>
         </is>
       </c>
-      <c r="D381" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D381" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E381" s="6" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -16105,7 +16105,7 @@
         </is>
       </c>
       <c r="E382" s="6" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="383">
@@ -16134,7 +16134,7 @@
         </is>
       </c>
       <c r="E383" s="6" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="384">
@@ -16157,13 +16157,13 @@
           <t xml:space="preserve"> 0]</t>
         </is>
       </c>
-      <c r="D384" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D384" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E384" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E386" s="6" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="387">
@@ -16250,7 +16250,7 @@
         </is>
       </c>
       <c r="E387" s="6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="388">
@@ -16284,13 +16284,13 @@
           <t xml:space="preserve"> ret</t>
         </is>
       </c>
-      <c r="D388" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D388" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E388" s="6" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="E389" s="6" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="390">
@@ -16372,7 +16372,7 @@
         </is>
       </c>
       <c r="E390" s="6" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="391">
@@ -16409,7 +16409,7 @@
         </is>
       </c>
       <c r="E391" s="6" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="392">
@@ -16436,13 +16436,13 @@
           <t xml:space="preserve"> xs</t>
         </is>
       </c>
-      <c r="D392" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D392" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E392" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -16474,7 +16474,7 @@
         </is>
       </c>
       <c r="E393" s="6" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="394">
@@ -16506,7 +16506,7 @@
         </is>
       </c>
       <c r="E394" s="6" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="395">
@@ -16531,13 +16531,13 @@
           <t xml:space="preserve"> x</t>
         </is>
       </c>
-      <c r="D395" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D395" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E395" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -16612,7 +16612,7 @@
         </is>
       </c>
       <c r="E397" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="398">
@@ -16652,7 +16652,7 @@
         </is>
       </c>
       <c r="E398" s="6" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="399">
@@ -16695,7 +16695,7 @@
         </is>
       </c>
       <c r="E399" s="6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="400">
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="E400" s="6" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="401">
@@ -16754,7 +16754,7 @@
         </is>
       </c>
       <c r="E401" s="6" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="402">
@@ -16785,7 +16785,7 @@
         </is>
       </c>
       <c r="E402" s="6" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="403">
@@ -16816,7 +16816,7 @@
         </is>
       </c>
       <c r="E403" s="6" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="404">
@@ -16838,13 +16838,13 @@
           <t xml:space="preserve"> ord 'a'))</t>
         </is>
       </c>
-      <c r="D404" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D404" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E404" s="6" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -16875,7 +16875,7 @@
         </is>
       </c>
       <c r="E405" s="6" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="406">
@@ -16905,7 +16905,7 @@
         </is>
       </c>
       <c r="E406" s="6" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="407">
@@ -16935,7 +16935,7 @@
         </is>
       </c>
       <c r="E407" s="6" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="408">
@@ -16961,13 +16961,13 @@
           <t xml:space="preserve"> maximum numbers</t>
         </is>
       </c>
-      <c r="D408" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D408" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E408" s="6" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -16991,13 +16991,13 @@
           <t xml:space="preserve"> numbers</t>
         </is>
       </c>
-      <c r="D409" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D409" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E409" s="6" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -17027,7 +17027,7 @@
         </is>
       </c>
       <c r="E410" s="6" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="411">
@@ -17072,7 +17072,7 @@
         </is>
       </c>
       <c r="E411" s="6" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="412">
@@ -17119,7 +17119,7 @@
         </is>
       </c>
       <c r="E412" s="6" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="413">
@@ -17159,7 +17159,7 @@
         </is>
       </c>
       <c r="E413" s="6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="414">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="E414" s="6" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="415">
@@ -17249,7 +17249,7 @@
         </is>
       </c>
       <c r="E415" s="6" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -17285,13 +17285,13 @@
           <t xml:space="preserve"> fibfib (n - 3)</t>
         </is>
       </c>
-      <c r="D416" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D416" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E416" s="6" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -17333,7 +17333,7 @@
         </is>
       </c>
       <c r="E417" s="6" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="418">
@@ -17368,13 +17368,13 @@
           <t xml:space="preserve"> 1</t>
         </is>
       </c>
-      <c r="D418" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D418" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E418" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -17447,13 +17447,13 @@
           <t xml:space="preserve"> 0</t>
         </is>
       </c>
-      <c r="D420" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D420" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E420" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -17483,7 +17483,7 @@
         </is>
       </c>
       <c r="E421" s="6" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="422">
@@ -17514,7 +17514,7 @@
         </is>
       </c>
       <c r="E422" s="6" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="423">
@@ -17544,7 +17544,7 @@
         </is>
       </c>
       <c r="E423" s="6" t="n">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="424">
@@ -17576,7 +17576,7 @@
         </is>
       </c>
       <c r="E424" s="6" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="425">
@@ -17601,13 +17601,13 @@
           <t xml:space="preserve"> numbers]</t>
         </is>
       </c>
-      <c r="D425" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D425" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E425" s="6" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -17639,7 +17639,7 @@
         </is>
       </c>
       <c r="E426" s="6" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="427">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E427" s="6" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="428">
@@ -17703,7 +17703,7 @@
         </is>
       </c>
       <c r="E428" s="6" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="429">
@@ -17735,7 +17735,7 @@
         </is>
       </c>
       <c r="E429" s="6" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="430">
@@ -17768,7 +17768,7 @@
         </is>
       </c>
       <c r="E430" s="6" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="431">
@@ -17836,7 +17836,7 @@
         </is>
       </c>
       <c r="E432" s="6" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="433">
@@ -17869,7 +17869,7 @@
         </is>
       </c>
       <c r="E433" s="6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="434">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="E434" s="6" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="435">
@@ -17937,13 +17937,13 @@
           <t xml:space="preserve"> xs</t>
         </is>
       </c>
-      <c r="D435" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D435" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E435" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -17981,7 +17981,7 @@
         </is>
       </c>
       <c r="E436" s="6" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="437">
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="E437" s="6" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="438">
@@ -18050,13 +18050,13 @@
           <t xml:space="preserve"> []</t>
         </is>
       </c>
-      <c r="D438" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D438" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E438" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -18098,7 +18098,7 @@
         </is>
       </c>
       <c r="E439" s="6" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="440">
@@ -18135,7 +18135,7 @@
         </is>
       </c>
       <c r="E440" s="6" t="n">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="441">
@@ -18169,7 +18169,7 @@
         </is>
       </c>
       <c r="E441" s="6" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="442">
@@ -18205,7 +18205,7 @@
         </is>
       </c>
       <c r="E442" s="6" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -18240,7 +18240,7 @@
         </is>
       </c>
       <c r="E443" s="6" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="444">
@@ -18290,7 +18290,7 @@
         </is>
       </c>
       <c r="E444" s="6" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="445">
@@ -18329,13 +18329,13 @@
           <t xml:space="preserve"> []</t>
         </is>
       </c>
-      <c r="D445" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D445" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E445" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -18378,13 +18378,13 @@
           <t xml:space="preserve"> 0</t>
         </is>
       </c>
-      <c r="D446" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D446" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E446" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -18433,7 +18433,7 @@
         </is>
       </c>
       <c r="E447" s="6" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="448">
@@ -18484,7 +18484,7 @@
         </is>
       </c>
       <c r="E448" s="6" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="449">
@@ -18514,7 +18514,7 @@
         </is>
       </c>
       <c r="E449" s="6" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="450">
@@ -18538,13 +18538,13 @@
           <t xml:space="preserve"> nub</t>
         </is>
       </c>
-      <c r="D450" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D450" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E450" s="6" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -18585,7 +18585,7 @@
         </is>
       </c>
       <c r="E451" s="6" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="452">
@@ -18625,7 +18625,7 @@
         </is>
       </c>
       <c r="E452" s="6" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="453">
@@ -18704,7 +18704,7 @@
         </is>
       </c>
       <c r="E454" s="6" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="455">
@@ -18742,7 +18742,7 @@
         </is>
       </c>
       <c r="E455" s="6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="456">
@@ -18785,7 +18785,7 @@
         </is>
       </c>
       <c r="E456" s="6" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="457">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E458" s="6" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="459">
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="E459" s="6" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="460">
@@ -18947,7 +18947,7 @@
         </is>
       </c>
       <c r="E460" s="6" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="461">
@@ -18981,13 +18981,13 @@
           <t xml:space="preserve"> 2</t>
         </is>
       </c>
-      <c r="D461" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D461" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E461" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -19067,7 +19067,7 @@
         </is>
       </c>
       <c r="E463" s="6" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="464">
@@ -19141,7 +19141,7 @@
         </is>
       </c>
       <c r="E465" s="6" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="466">
@@ -19189,7 +19189,7 @@
         </is>
       </c>
       <c r="E466" s="6" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="467">
@@ -19239,7 +19239,7 @@
         </is>
       </c>
       <c r="E467" s="6" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="468">
@@ -19271,13 +19271,13 @@
           <t xml:space="preserve"> []</t>
         </is>
       </c>
-      <c r="D468" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D468" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E468" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E469" s="6" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="470">
@@ -19372,7 +19372,7 @@
         </is>
       </c>
       <c r="E470" s="6" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="471">
@@ -19405,7 +19405,7 @@
         </is>
       </c>
       <c r="E471" s="6" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="472">
@@ -19438,7 +19438,7 @@
         </is>
       </c>
       <c r="E472" s="6" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="473">
@@ -19476,13 +19476,13 @@
           <t xml:space="preserve"> True</t>
         </is>
       </c>
-      <c r="D473" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D473" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E473" s="6" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -19521,13 +19521,13 @@
           <t xml:space="preserve"> False</t>
         </is>
       </c>
-      <c r="D474" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D474" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E474" s="6" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -19568,7 +19568,7 @@
         </is>
       </c>
       <c r="E475" s="6" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="476">
@@ -19608,7 +19608,7 @@
         </is>
       </c>
       <c r="E476" s="6" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="477">
@@ -19651,7 +19651,7 @@
         </is>
       </c>
       <c r="E477" s="6" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="478">
@@ -19686,7 +19686,7 @@
         </is>
       </c>
       <c r="E478" s="6" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="479">
@@ -19755,7 +19755,7 @@
         </is>
       </c>
       <c r="E480" s="6" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="481">
@@ -19789,7 +19789,7 @@
         </is>
       </c>
       <c r="E481" s="6" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="482">
@@ -19823,7 +19823,7 @@
         </is>
       </c>
       <c r="E482" s="6" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="483">
@@ -19857,7 +19857,7 @@
         </is>
       </c>
       <c r="E483" s="6" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="484">
@@ -19890,7 +19890,7 @@
         </is>
       </c>
       <c r="E484" s="6" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="485">
@@ -19923,7 +19923,7 @@
         </is>
       </c>
       <c r="E485" s="6" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="486">
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="E487" s="6" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="488">
@@ -20053,7 +20053,7 @@
         </is>
       </c>
       <c r="E489" s="6" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="490">
@@ -20084,7 +20084,7 @@
         </is>
       </c>
       <c r="E490" s="6" t="n">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="491">
@@ -20115,7 +20115,7 @@
         </is>
       </c>
       <c r="E491" s="6" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="492">
@@ -20161,7 +20161,7 @@
         </is>
       </c>
       <c r="E492" s="6" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="493">
@@ -20214,7 +20214,7 @@
         </is>
       </c>
       <c r="E493" s="6" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="494">
@@ -20259,13 +20259,13 @@
           <t xml:space="preserve"> compare (fst x) (fst y))</t>
         </is>
       </c>
-      <c r="D494" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D494" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E494" s="6" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -20312,7 +20312,7 @@
         </is>
       </c>
       <c r="E495" s="6" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="496">
@@ -20359,7 +20359,7 @@
         </is>
       </c>
       <c r="E496" s="6" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="497">
@@ -20400,7 +20400,7 @@
         </is>
       </c>
       <c r="E497" s="6" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="498">
@@ -20442,7 +20442,7 @@
         </is>
       </c>
       <c r="E498" s="6" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="499">
@@ -20481,7 +20481,7 @@
         </is>
       </c>
       <c r="E499" s="6" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="500">
@@ -20516,7 +20516,7 @@
         </is>
       </c>
       <c r="E500" s="6" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="501">
@@ -20548,13 +20548,13 @@
           <t xml:space="preserve"> res</t>
         </is>
       </c>
-      <c r="D501" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D501" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E501" s="6" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -20594,7 +20594,7 @@
         </is>
       </c>
       <c r="E502" s="6" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="503">
@@ -20631,7 +20631,7 @@
         </is>
       </c>
       <c r="E503" s="6" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="504">
@@ -20661,13 +20661,13 @@
           <t xml:space="preserve"> Nothing</t>
         </is>
       </c>
-      <c r="D504" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D504" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E504" s="6" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -20707,7 +20707,7 @@
         </is>
       </c>
       <c r="E505" s="6" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="506">
@@ -20753,7 +20753,7 @@
         </is>
       </c>
       <c r="E506" s="6" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="507">
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="E507" s="6" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="508">
@@ -20833,13 +20833,13 @@
           <t xml:space="preserve"> word)</t>
         </is>
       </c>
-      <c r="D508" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D508" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E508" s="6" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -20926,7 +20926,7 @@
         </is>
       </c>
       <c r="E510" s="6" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="511">
@@ -20958,7 +20958,7 @@
         </is>
       </c>
       <c r="E511" s="6" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -20991,7 +20991,7 @@
         </is>
       </c>
       <c r="E512" s="6" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="513">
@@ -21023,7 +21023,7 @@
         </is>
       </c>
       <c r="E513" s="6" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="514">
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="E514" s="6" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="515">
@@ -21118,7 +21118,7 @@
         </is>
       </c>
       <c r="E515" s="6" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="516">
@@ -21164,7 +21164,7 @@
         </is>
       </c>
       <c r="E516" s="6" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="517">
@@ -21198,7 +21198,7 @@
         </is>
       </c>
       <c r="E517" s="6" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="518">
@@ -21231,7 +21231,7 @@
         </is>
       </c>
       <c r="E518" s="6" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="519">
@@ -21270,7 +21270,7 @@
         </is>
       </c>
       <c r="E519" s="6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="520">
@@ -21347,7 +21347,7 @@
         </is>
       </c>
       <c r="E521" s="6" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -21384,7 +21384,7 @@
         </is>
       </c>
       <c r="E522" s="6" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="523">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E523" s="6" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="524">
@@ -21458,7 +21458,7 @@
         </is>
       </c>
       <c r="E524" s="6" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -21492,7 +21492,7 @@
         </is>
       </c>
       <c r="E525" s="6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -21529,7 +21529,7 @@
         </is>
       </c>
       <c r="E526" s="6" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="527">
@@ -21567,7 +21567,7 @@
         </is>
       </c>
       <c r="E527" s="6" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="528">
@@ -21650,7 +21650,7 @@
         </is>
       </c>
       <c r="E529" s="6" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="530">
@@ -21698,7 +21698,7 @@
         </is>
       </c>
       <c r="E530" s="6" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="531">
@@ -21742,13 +21742,13 @@
           <t xml:space="preserve"> odd x]</t>
         </is>
       </c>
-      <c r="D531" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D531" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E531" s="6" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -21791,13 +21791,13 @@
           <t xml:space="preserve"> even x]</t>
         </is>
       </c>
-      <c r="D532" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D532" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E532" s="6" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="E533" s="6" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="534">
@@ -21876,7 +21876,7 @@
         </is>
       </c>
       <c r="E534" s="6" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="535">
@@ -21905,7 +21905,7 @@
         </is>
       </c>
       <c r="E535" s="6" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="536">
@@ -21934,7 +21934,7 @@
         </is>
       </c>
       <c r="E536" s="6" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="537">
@@ -21969,7 +21969,7 @@
         </is>
       </c>
       <c r="E537" s="6" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="538">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="E538" s="6" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="539">
@@ -22029,13 +22029,13 @@
           <t xml:space="preserve"> fromIntegral (length numbers)</t>
         </is>
       </c>
-      <c r="D539" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D539" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E539" s="6" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -22068,7 +22068,7 @@
         </is>
       </c>
       <c r="E540" s="6" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="541">
@@ -22097,13 +22097,13 @@
           <t xml:space="preserve"> fromIntegral (length numbers)</t>
         </is>
       </c>
-      <c r="D541" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D541" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E541" s="6" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -22138,7 +22138,7 @@
         </is>
       </c>
       <c r="E542" s="6" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="543">
@@ -22169,13 +22169,13 @@
           <t xml:space="preserve"> c) s</t>
         </is>
       </c>
-      <c r="D543" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D543" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E543" s="6" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -22210,7 +22210,7 @@
         </is>
       </c>
       <c r="E544" s="6" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="545">
@@ -22283,13 +22283,13 @@
           <t xml:space="preserve"> groups</t>
         </is>
       </c>
-      <c r="D546" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D546" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E546" s="6" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -22326,13 +22326,13 @@
           <t xml:space="preserve"> -1</t>
         </is>
       </c>
-      <c r="D547" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D547" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E547" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -22368,13 +22368,13 @@
           <t xml:space="preserve"> 1</t>
         </is>
       </c>
-      <c r="D548" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D548" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E548" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -22413,7 +22413,7 @@
         </is>
       </c>
       <c r="E549" s="6" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="550">
@@ -22451,7 +22451,7 @@
         </is>
       </c>
       <c r="E550" s="6" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="551">
@@ -22545,13 +22545,13 @@
           <t xml:space="preserve"> x &lt;- numbers]</t>
         </is>
       </c>
-      <c r="D553" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D553" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E553" s="6" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -22588,7 +22588,7 @@
         </is>
       </c>
       <c r="E554" s="6" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="555">
@@ -22624,7 +22624,7 @@
         </is>
       </c>
       <c r="E555" s="6" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="556">
@@ -22661,7 +22661,7 @@
         </is>
       </c>
       <c r="E556" s="6" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="557">
@@ -22694,7 +22694,7 @@
         </is>
       </c>
       <c r="E557" s="6" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="558">
@@ -22726,7 +22726,7 @@
         </is>
       </c>
       <c r="E558" s="6" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -22759,7 +22759,7 @@
         </is>
       </c>
       <c r="E559" s="6" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="560">
@@ -22792,7 +22792,7 @@
         </is>
       </c>
       <c r="E560" s="6" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="561">
@@ -22865,7 +22865,7 @@
         </is>
       </c>
       <c r="E562" s="6" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="563">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="E563" s="6" t="n">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="564">
@@ -22934,7 +22934,7 @@
         </is>
       </c>
       <c r="E564" s="6" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="565">
@@ -22963,13 +22963,13 @@
           <t xml:space="preserve"> 1 else 0</t>
         </is>
       </c>
-      <c r="D565" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D565" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E565" s="6" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E567" s="6" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="568">
@@ -23089,7 +23089,7 @@
         </is>
       </c>
       <c r="E568" s="6" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="569">
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="E569" s="6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -23170,7 +23170,7 @@
         </is>
       </c>
       <c r="E570" s="6" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="571">
@@ -23209,7 +23209,7 @@
         </is>
       </c>
       <c r="E571" s="6" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="572">
@@ -23242,7 +23242,7 @@
         </is>
       </c>
       <c r="E572" s="6" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="573">
@@ -23273,7 +23273,7 @@
         </is>
       </c>
       <c r="E573" s="6" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="574">
@@ -23300,13 +23300,13 @@
           <t xml:space="preserve"> string == prefix</t>
         </is>
       </c>
-      <c r="D574" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D574" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E574" s="6" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -23337,7 +23337,7 @@
         </is>
       </c>
       <c r="E575" s="6" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="576">
@@ -23368,7 +23368,7 @@
         </is>
       </c>
       <c r="E576" s="6" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="577">
@@ -23403,7 +23403,7 @@
         </is>
       </c>
       <c r="E577" s="6" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="578">
@@ -23441,7 +23441,7 @@
         </is>
       </c>
       <c r="E578" s="6" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="579">
@@ -23524,7 +23524,7 @@
         </is>
       </c>
       <c r="E580" s="6" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -23567,7 +23567,7 @@
         </is>
       </c>
       <c r="E581" s="6" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="582">
@@ -23603,13 +23603,13 @@
           <t xml:space="preserve"> z</t>
         </is>
       </c>
-      <c r="D582" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D582" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E582" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="E583" s="6" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="584">
@@ -23694,7 +23694,7 @@
         </is>
       </c>
       <c r="E584" s="6" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="585">
@@ -23736,7 +23736,7 @@
         </is>
       </c>
       <c r="E585" s="6" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="586">
@@ -23778,7 +23778,7 @@
         </is>
       </c>
       <c r="E586" s="6" t="n">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="587">
@@ -23820,7 +23820,7 @@
         </is>
       </c>
       <c r="E587" s="6" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="588">
@@ -23858,7 +23858,7 @@
         </is>
       </c>
       <c r="E588" s="6" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="589">
@@ -23894,13 +23894,13 @@
           <t xml:space="preserve"> length $ filter odd lst1</t>
         </is>
       </c>
-      <c r="D589" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D589" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E589" s="6" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -23936,13 +23936,13 @@
           <t xml:space="preserve"> lst1</t>
         </is>
       </c>
-      <c r="D590" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D590" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E590" s="6" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -23983,7 +23983,7 @@
         </is>
       </c>
       <c r="E591" s="6" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="592">
@@ -24019,13 +24019,13 @@
           <t xml:space="preserve"> filter odd lst1</t>
         </is>
       </c>
-      <c r="D592" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D592" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E592" s="6" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="E593" s="6" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="594">
@@ -24107,7 +24107,7 @@
         </is>
       </c>
       <c r="E594" s="6" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="595">
@@ -24142,13 +24142,13 @@
           <t xml:space="preserve"> zip game guess]</t>
         </is>
       </c>
-      <c r="D595" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D595" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E595" s="6" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -24184,7 +24184,7 @@
         </is>
       </c>
       <c r="E596" s="6" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="597">
@@ -24220,7 +24220,7 @@
         </is>
       </c>
       <c r="E597" s="6" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="598">
@@ -24276,7 +24276,7 @@
         </is>
       </c>
       <c r="E598" s="6" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="599">
@@ -24332,7 +24332,7 @@
         </is>
       </c>
       <c r="E599" s="6" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="600">
@@ -24388,7 +24388,7 @@
         </is>
       </c>
       <c r="E600" s="6" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="601">
@@ -24422,7 +24422,7 @@
         </is>
       </c>
       <c r="E601" s="6" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="602">
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="E602" s="6" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="603">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="E603" s="6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
@@ -24518,7 +24518,7 @@
         </is>
       </c>
       <c r="E604" s="6" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
